--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/15/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.23560000000001</v>
+        <v>15.4052</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.0292</v>
+        <v>6.176599999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.2194</v>
+        <v>5.108899999999999</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.855300000000001</v>
+        <v>4.984300000000002</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.0731</v>
+        <v>16.18719999999999</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.350699999999998</v>
+        <v>6.604500000000001</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.78430000000001</v>
+        <v>17.70050000000002</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.88249999999999</v>
+        <v>15.89809999999999</v>
       </c>
     </row>
     <row r="21">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.10870000000001</v>
+        <v>17.02830000000001</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.3702</v>
+        <v>15.6101</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>15.9489</v>
+        <v>16.2065</v>
       </c>
     </row>
     <row r="32">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.919899999999998</v>
+        <v>8.830400000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.01660000000001</v>
+        <v>17.1711</v>
       </c>
     </row>
     <row r="41">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.2774</v>
+        <v>16.2985</v>
       </c>
     </row>
     <row r="51">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.6091</v>
+        <v>6.029199999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,7 +1587,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.651799999999995</v>
+        <v>4.637199999999996</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.55680000000001</v>
+        <v>17.58150000000002</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.20719999999999</v>
+        <v>16.16319999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.099700000000007</v>
+        <v>9.004500000000009</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.572099999999999</v>
+        <v>9.390300000000002</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.391900000000001</v>
+        <v>5.259100000000002</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.526199999999997</v>
+        <v>5.572099999999999</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.2732</v>
+        <v>16.2977</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.34849999999999</v>
+        <v>16.3628</v>
       </c>
     </row>
     <row r="89">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.40149999999999</v>
+        <v>16.44499999999998</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.47720000000001</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="99">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.73520000000001</v>
+        <v>16.76170000000002</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.6831</v>
+        <v>16.70189999999999</v>
       </c>
     </row>
   </sheetData>
